--- a/Design Phase/Project Documentation/01-Sprint_Backlog-(Project_Id)-(Project_Name)_v1.0.xlsx
+++ b/Design Phase/Project Documentation/01-Sprint_Backlog-(Project_Id)-(Project_Name)_v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <definedName name="Iteration">#REF!</definedName>
     <definedName name="Ltst_TestLog">"'Test log'"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">' Sample'!$A$2:$U$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint -1'!$A$2:$U$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint -1'!$A$2:$U$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Sprint -2'!$A$2:$U$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Sprint -3'!$A$2:$U$28</definedName>
     <definedName name="Priority" localSheetId="4">#REF!</definedName>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="222">
   <si>
     <t>&lt;Project Name&gt;</t>
   </si>
@@ -473,9 +473,6 @@
     <t>US_3_User Registration and Login</t>
   </si>
   <si>
-    <t>Registration form</t>
-  </si>
-  <si>
     <t>Creating database</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
   </si>
   <si>
     <t>UserDaoImpl</t>
-  </si>
-  <si>
-    <t>Connection Properties</t>
   </si>
   <si>
     <t>admin login jsp</t>
@@ -849,6 +843,27 @@
   </si>
   <si>
     <t>logoff to all jsps</t>
+  </si>
+  <si>
+    <t>Admin Model clas</t>
+  </si>
+  <si>
+    <t>Analyst Model Class</t>
+  </si>
+  <si>
+    <t>Complaint Model</t>
+  </si>
+  <si>
+    <t>Feedback Model</t>
+  </si>
+  <si>
+    <t>Secret Question Model</t>
+  </si>
+  <si>
+    <t>Secret questionare Model</t>
+  </si>
+  <si>
+    <t>User Registration form</t>
   </si>
 </sst>
 </file>
@@ -1438,6 +1453,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1520,18 +1547,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1887,15 +1902,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint -1'!$F$48:$K$48</c:f>
+              <c:f>'Sprint -1'!$F$53:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>38.58</c:v>
+                  <c:v>41.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2058,7 +2073,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2272,6 +2286,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3592,7 +3607,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4477,64 +4492,64 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="2:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
@@ -4593,12 +4608,12 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4770,15 +4785,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -4786,34 +4801,34 @@
     <row r="3" spans="2:15" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:15" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="85"/>
     </row>
     <row r="6" spans="2:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="87"/>
     </row>
     <row r="7" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="85"/>
+      <c r="D7" s="89"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="87"/>
     </row>
     <row r="9" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="85"/>
+      <c r="D9" s="89"/>
     </row>
     <row r="10" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
@@ -4963,15 +4978,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
@@ -8933,11 +8948,11 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA143"/>
+  <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8946,7 +8961,7 @@
     <col min="2" max="2" width="23" style="53" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="54" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="53" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="53" customWidth="1"/>
     <col min="7" max="11" width="12.33203125" style="53"/>
     <col min="12" max="12" width="2" style="53" customWidth="1"/>
@@ -8960,15 +8975,15 @@
     <row r="1" spans="1:27" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
       <c r="L1" s="2"/>
@@ -9067,10 +9082,10 @@
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="59">
         <v>1</v>
@@ -9102,19 +9117,21 @@
         <v>68</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F5" s="59">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0.5</v>
+      </c>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
@@ -9141,19 +9158,21 @@
         <v>69</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F6" s="59">
-        <v>1</v>
-      </c>
-      <c r="G6" s="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0.5</v>
+      </c>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
@@ -9176,21 +9195,29 @@
       <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="A7" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
       <c r="N7" s="55"/>
@@ -9210,20 +9237,20 @@
     </row>
     <row r="8" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
@@ -9249,20 +9276,20 @@
     </row>
     <row r="9" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="59">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
@@ -9287,27 +9314,21 @@
       <c r="AA9" s="55"/>
     </row>
     <row r="10" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="59">
-        <v>2</v>
-      </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="A10" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
@@ -9327,17 +9348,17 @@
     </row>
     <row r="11" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="59">
         <v>1</v>
@@ -9366,20 +9387,20 @@
     </row>
     <row r="12" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="59"/>
@@ -9405,22 +9426,24 @@
     </row>
     <row r="13" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F13" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="G13" s="59"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="59">
+        <v>2.5</v>
+      </c>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
       <c r="J13" s="59"/>
@@ -9443,21 +9466,29 @@
       <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
+      <c r="A14" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="59">
+        <v>1</v>
+      </c>
+      <c r="G14" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
       <c r="N14" s="55"/>
@@ -9477,17 +9508,17 @@
     </row>
     <row r="15" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="59">
         <v>1</v>
@@ -9516,20 +9547,20 @@
     </row>
     <row r="16" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="59">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
@@ -9555,22 +9586,24 @@
     </row>
     <row r="17" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F17" s="59">
-        <v>1</v>
-      </c>
-      <c r="G17" s="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="59">
+        <v>0.5</v>
+      </c>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
@@ -9594,22 +9627,24 @@
     </row>
     <row r="18" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F18" s="59">
-        <v>1</v>
-      </c>
-      <c r="G18" s="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="59">
+        <v>0.5</v>
+      </c>
       <c r="H18" s="59"/>
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
@@ -9633,22 +9668,24 @@
     </row>
     <row r="19" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59" t="s">
         <v>100</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F19" s="59">
         <v>0.5</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="59">
+        <v>0.5</v>
+      </c>
       <c r="H19" s="59"/>
       <c r="I19" s="59"/>
       <c r="J19" s="59"/>
@@ -9671,27 +9708,21 @@
       <c r="AA19" s="55"/>
     </row>
     <row r="20" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="59">
-        <v>1</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
+      <c r="A20" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
       <c r="N20" s="55"/>
@@ -9711,17 +9742,17 @@
     </row>
     <row r="21" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="59">
         <v>1</v>
@@ -9750,20 +9781,20 @@
     </row>
     <row r="22" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="59">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
@@ -9787,22 +9818,28 @@
       <c r="Z22" s="55"/>
       <c r="AA22" s="55"/>
     </row>
-    <row r="23" spans="1:27" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+    <row r="23" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="59">
+        <v>1</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
       <c r="N23" s="55"/>
@@ -9822,17 +9859,17 @@
     </row>
     <row r="24" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" s="59">
         <v>1</v>
@@ -9861,20 +9898,20 @@
     </row>
     <row r="25" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="59"/>
@@ -9900,17 +9937,17 @@
     </row>
     <row r="26" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="59">
         <v>1</v>
@@ -9939,17 +9976,17 @@
     </row>
     <row r="27" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="59">
         <v>1</v>
@@ -9976,28 +10013,22 @@
       <c r="Z27" s="55"/>
       <c r="AA27" s="55"/>
     </row>
-    <row r="28" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="59" t="s">
+    <row r="28" spans="1:27" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="59">
-        <v>1</v>
-      </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
       <c r="N28" s="55"/>
@@ -10016,21 +10047,27 @@
       <c r="AA28" s="55"/>
     </row>
     <row r="29" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="59">
+        <v>1</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
       <c r="N29" s="55"/>
@@ -10050,17 +10087,17 @@
     </row>
     <row r="30" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="59" t="s">
         <v>112</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F30" s="59">
         <v>1</v>
@@ -10089,20 +10126,20 @@
     </row>
     <row r="31" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="59" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="59">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="59"/>
       <c r="H31" s="59"/>
@@ -10127,21 +10164,27 @@
       <c r="AA31" s="55"/>
     </row>
     <row r="32" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
+      <c r="A32" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="59">
+        <v>1</v>
+      </c>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="55"/>
@@ -10161,17 +10204,17 @@
     </row>
     <row r="33" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="59">
         <v>1</v>
@@ -10199,27 +10242,21 @@
       <c r="AA33" s="55"/>
     </row>
     <row r="34" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="A34" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
       <c r="L34" s="55"/>
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
@@ -10237,22 +10274,22 @@
       <c r="Z34" s="55"/>
       <c r="AA34" s="55"/>
     </row>
-    <row r="35" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" s="59">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
@@ -10278,20 +10315,20 @@
     </row>
     <row r="36" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
@@ -10316,27 +10353,21 @@
       <c r="AA36" s="55"/>
     </row>
     <row r="37" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="59">
-        <v>1</v>
-      </c>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="A37" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
       <c r="L37" s="55"/>
       <c r="M37" s="55"/>
       <c r="N37" s="55"/>
@@ -10355,21 +10386,27 @@
       <c r="AA37" s="55"/>
     </row>
     <row r="38" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
+      <c r="A38" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="59">
+        <v>1</v>
+      </c>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
       <c r="L38" s="55"/>
       <c r="M38" s="55"/>
       <c r="N38" s="55"/>
@@ -10389,20 +10426,20 @@
     </row>
     <row r="39" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
@@ -10426,22 +10463,22 @@
       <c r="Z39" s="55"/>
       <c r="AA39" s="55"/>
     </row>
-    <row r="40" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
@@ -10467,20 +10504,20 @@
     </row>
     <row r="41" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="59">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G41" s="59"/>
       <c r="H41" s="59"/>
@@ -10506,20 +10543,20 @@
     </row>
     <row r="42" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="59">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G42" s="59"/>
       <c r="H42" s="59"/>
@@ -10544,27 +10581,21 @@
       <c r="AA42" s="55"/>
     </row>
     <row r="43" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="59">
-        <v>1</v>
-      </c>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
+      <c r="A43" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
       <c r="L43" s="55"/>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
@@ -10583,21 +10614,27 @@
       <c r="AA43" s="55"/>
     </row>
     <row r="44" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
+      <c r="A44" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="59">
+        <v>1</v>
+      </c>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
@@ -10617,17 +10654,17 @@
     </row>
     <row r="45" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="59">
         <v>1</v>
@@ -10656,20 +10693,20 @@
     </row>
     <row r="46" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G46" s="59"/>
       <c r="H46" s="59"/>
@@ -10695,20 +10732,20 @@
     </row>
     <row r="47" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G47" s="59"/>
       <c r="H47" s="59"/>
@@ -10732,38 +10769,28 @@
       <c r="Z47" s="55"/>
       <c r="AA47" s="55"/>
     </row>
-    <row r="48" spans="1:27" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60">
-        <f>SUM(F3:F47)</f>
-        <v>38.58</v>
-      </c>
-      <c r="G48" s="60">
-        <f>SUM(G4:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="60">
-        <f>SUM(H3:H47)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="60">
-        <f>SUM(I3:I47)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="60">
-        <f>SUM(J3:J47)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="60">
-        <f>SUM(K3:K47)</f>
-        <v>0</v>
-      </c>
+    <row r="48" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="59">
+        <v>1</v>
+      </c>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
       <c r="L48" s="55"/>
       <c r="M48" s="55"/>
       <c r="N48" s="55"/>
@@ -10781,18 +10808,22 @@
       <c r="Z48" s="55"/>
       <c r="AA48" s="55"/>
     </row>
-    <row r="49" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
+    <row r="49" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
       <c r="L49" s="55"/>
       <c r="M49" s="55"/>
       <c r="N49" s="55"/>
@@ -10810,18 +10841,28 @@
       <c r="Z49" s="55"/>
       <c r="AA49" s="55"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
+    <row r="50" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="59">
+        <v>1</v>
+      </c>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
       <c r="L50" s="55"/>
       <c r="M50" s="55"/>
       <c r="N50" s="55"/>
@@ -10839,18 +10880,28 @@
       <c r="Z50" s="55"/>
       <c r="AA50" s="55"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
+    <row r="51" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="59">
+        <v>1</v>
+      </c>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
       <c r="L51" s="55"/>
       <c r="M51" s="55"/>
       <c r="N51" s="55"/>
@@ -10868,18 +10919,28 @@
       <c r="Z51" s="55"/>
       <c r="AA51" s="55"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
+    <row r="52" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="59">
+        <v>1</v>
+      </c>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
       <c r="L52" s="55"/>
       <c r="M52" s="55"/>
       <c r="N52" s="55"/>
@@ -10897,18 +10958,38 @@
       <c r="Z52" s="55"/>
       <c r="AA52" s="55"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
+    <row r="53" spans="1:27" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60">
+        <f>SUM(F3:F52)</f>
+        <v>41.25</v>
+      </c>
+      <c r="G53" s="60">
+        <f>SUM(G4:G52)</f>
+        <v>6</v>
+      </c>
+      <c r="H53" s="60">
+        <f>SUM(H3:H52)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="60">
+        <f>SUM(I3:I52)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="60">
+        <f>SUM(J3:J52)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="60">
+        <f>SUM(K3:K52)</f>
+        <v>0</v>
+      </c>
       <c r="L53" s="55"/>
       <c r="M53" s="55"/>
       <c r="N53" s="55"/>
@@ -10926,7 +11007,7 @@
       <c r="Z53" s="55"/>
       <c r="AA53" s="55"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="56"/>
@@ -13536,6 +13617,151 @@
       <c r="Z143" s="55"/>
       <c r="AA143" s="55"/>
     </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A144" s="55"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="55"/>
+      <c r="J144" s="55"/>
+      <c r="K144" s="55"/>
+      <c r="L144" s="55"/>
+      <c r="M144" s="55"/>
+      <c r="N144" s="55"/>
+      <c r="O144" s="55"/>
+      <c r="P144" s="55"/>
+      <c r="Q144" s="55"/>
+      <c r="R144" s="55"/>
+      <c r="S144" s="55"/>
+      <c r="T144" s="55"/>
+      <c r="U144" s="55"/>
+      <c r="V144" s="55"/>
+      <c r="W144" s="55"/>
+      <c r="X144" s="55"/>
+      <c r="Y144" s="55"/>
+      <c r="Z144" s="55"/>
+      <c r="AA144" s="55"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A145" s="55"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="55"/>
+      <c r="K145" s="55"/>
+      <c r="L145" s="55"/>
+      <c r="M145" s="55"/>
+      <c r="N145" s="55"/>
+      <c r="O145" s="55"/>
+      <c r="P145" s="55"/>
+      <c r="Q145" s="55"/>
+      <c r="R145" s="55"/>
+      <c r="S145" s="55"/>
+      <c r="T145" s="55"/>
+      <c r="U145" s="55"/>
+      <c r="V145" s="55"/>
+      <c r="W145" s="55"/>
+      <c r="X145" s="55"/>
+      <c r="Y145" s="55"/>
+      <c r="Z145" s="55"/>
+      <c r="AA145" s="55"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A146" s="55"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="55"/>
+      <c r="J146" s="55"/>
+      <c r="K146" s="55"/>
+      <c r="L146" s="55"/>
+      <c r="M146" s="55"/>
+      <c r="N146" s="55"/>
+      <c r="O146" s="55"/>
+      <c r="P146" s="55"/>
+      <c r="Q146" s="55"/>
+      <c r="R146" s="55"/>
+      <c r="S146" s="55"/>
+      <c r="T146" s="55"/>
+      <c r="U146" s="55"/>
+      <c r="V146" s="55"/>
+      <c r="W146" s="55"/>
+      <c r="X146" s="55"/>
+      <c r="Y146" s="55"/>
+      <c r="Z146" s="55"/>
+      <c r="AA146" s="55"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A147" s="55"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="56"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="55"/>
+      <c r="J147" s="55"/>
+      <c r="K147" s="55"/>
+      <c r="L147" s="55"/>
+      <c r="M147" s="55"/>
+      <c r="N147" s="55"/>
+      <c r="O147" s="55"/>
+      <c r="P147" s="55"/>
+      <c r="Q147" s="55"/>
+      <c r="R147" s="55"/>
+      <c r="S147" s="55"/>
+      <c r="T147" s="55"/>
+      <c r="U147" s="55"/>
+      <c r="V147" s="55"/>
+      <c r="W147" s="55"/>
+      <c r="X147" s="55"/>
+      <c r="Y147" s="55"/>
+      <c r="Z147" s="55"/>
+      <c r="AA147" s="55"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A148" s="55"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="55"/>
+      <c r="J148" s="55"/>
+      <c r="K148" s="55"/>
+      <c r="L148" s="55"/>
+      <c r="M148" s="55"/>
+      <c r="N148" s="55"/>
+      <c r="O148" s="55"/>
+      <c r="P148" s="55"/>
+      <c r="Q148" s="55"/>
+      <c r="R148" s="55"/>
+      <c r="S148" s="55"/>
+      <c r="T148" s="55"/>
+      <c r="U148" s="55"/>
+      <c r="V148" s="55"/>
+      <c r="W148" s="55"/>
+      <c r="X148" s="55"/>
+      <c r="Y148" s="55"/>
+      <c r="Z148" s="55"/>
+      <c r="AA148" s="55"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:I1"/>
@@ -13547,11 +13773,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F52 F3:F19">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:K47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:K52">
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
@@ -13571,8 +13797,8 @@
   <dimension ref="A1:AA164"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13595,15 +13821,15 @@
     <row r="1" spans="1:27" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
       <c r="L1" s="2"/>
@@ -13662,10 +13888,10 @@
     </row>
     <row r="3" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="58"/>
@@ -13698,14 +13924,14 @@
         <v>67</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="59">
         <v>1</v>
@@ -13737,14 +13963,14 @@
         <v>68</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="59">
         <v>1</v>
@@ -13776,14 +14002,14 @@
         <v>69</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="59">
         <v>0.5</v>
@@ -13815,14 +14041,14 @@
         <v>70</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="59">
         <v>1</v>
@@ -13854,14 +14080,14 @@
         <v>83</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="59">
         <v>0.5</v>
@@ -13893,14 +14119,14 @@
         <v>84</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="59">
         <v>2</v>
@@ -13929,17 +14155,17 @@
     </row>
     <row r="10" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="59">
         <v>1.5</v>
@@ -13968,10 +14194,10 @@
     </row>
     <row r="11" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="58"/>
@@ -14004,14 +14230,14 @@
         <v>67</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="59">
         <v>1</v>
@@ -14043,14 +14269,14 @@
         <v>68</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="59">
         <v>1</v>
@@ -14082,14 +14308,14 @@
         <v>69</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="59">
         <v>1</v>
@@ -14121,14 +14347,14 @@
         <v>70</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="59">
         <v>1</v>
@@ -14160,14 +14386,14 @@
         <v>83</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="59">
         <v>1</v>
@@ -14199,14 +14425,14 @@
         <v>84</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="59">
         <v>0.75</v>
@@ -14235,10 +14461,10 @@
     </row>
     <row r="18" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="58"/>
@@ -14271,14 +14497,14 @@
         <v>67</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="59">
         <v>2</v>
@@ -14310,14 +14536,14 @@
         <v>68</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="59">
         <v>1</v>
@@ -14349,14 +14575,14 @@
         <v>69</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="59">
         <v>1</v>
@@ -14388,14 +14614,14 @@
         <v>70</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="59">
         <v>1.5</v>
@@ -14424,10 +14650,10 @@
     </row>
     <row r="23" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58"/>
@@ -14460,13 +14686,15 @@
         <v>67</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F24" s="59">
         <v>1</v>
       </c>
@@ -14497,13 +14725,15 @@
         <v>68</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F25" s="59">
         <v>1</v>
       </c>
@@ -14534,13 +14764,15 @@
         <v>69</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F26" s="59">
         <v>1.5</v>
       </c>
@@ -14571,13 +14803,15 @@
         <v>70</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F27" s="59">
         <v>1</v>
       </c>
@@ -14605,10 +14839,10 @@
     </row>
     <row r="28" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="58"/>
@@ -14641,13 +14875,15 @@
         <v>67</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F29" s="59">
         <v>2</v>
       </c>
@@ -14678,13 +14914,15 @@
         <v>68</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F30" s="59">
         <v>1.5</v>
       </c>
@@ -14715,13 +14953,15 @@
         <v>69</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F31" s="59">
         <v>1.5</v>
       </c>
@@ -14752,13 +14992,15 @@
         <v>70</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F32" s="59">
         <v>1.5</v>
       </c>
@@ -14789,13 +15031,15 @@
         <v>83</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F33" s="59">
         <v>1</v>
       </c>
@@ -14823,10 +15067,10 @@
     </row>
     <row r="34" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="58"/>
@@ -14859,13 +15103,15 @@
         <v>67</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F35" s="59">
         <v>2</v>
       </c>
@@ -14896,13 +15142,15 @@
         <v>68</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F36" s="59">
         <v>1</v>
       </c>
@@ -14930,10 +15178,10 @@
     </row>
     <row r="37" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="58"/>
@@ -14966,13 +15214,15 @@
         <v>67</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F38" s="59">
         <v>1</v>
       </c>
@@ -15003,13 +15253,15 @@
         <v>68</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F39" s="59">
         <v>1</v>
       </c>
@@ -15040,13 +15292,15 @@
         <v>69</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F40" s="59">
         <v>2</v>
       </c>
@@ -15077,13 +15331,15 @@
         <v>70</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F41" s="59">
         <v>1</v>
       </c>
@@ -15114,13 +15370,15 @@
         <v>83</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F42" s="59">
         <v>1</v>
       </c>
@@ -15151,13 +15409,15 @@
         <v>84</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F43" s="59">
         <v>1</v>
       </c>
@@ -15185,16 +15445,18 @@
     </row>
     <row r="44" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F44" s="59">
         <v>1</v>
       </c>
@@ -15222,16 +15484,18 @@
     </row>
     <row r="45" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F45" s="59">
         <v>1</v>
       </c>
@@ -15259,16 +15523,18 @@
     </row>
     <row r="46" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F46" s="59">
         <v>1.5</v>
       </c>
@@ -15296,10 +15562,10 @@
     </row>
     <row r="47" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C47" s="57"/>
       <c r="D47" s="58"/>
@@ -15332,13 +15598,15 @@
         <v>67</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F48" s="59">
         <v>1.5</v>
       </c>
@@ -15369,13 +15637,15 @@
         <v>68</v>
       </c>
       <c r="B49" s="59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F49" s="59">
         <v>1.5</v>
       </c>
@@ -15406,13 +15676,15 @@
         <v>69</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F50" s="59">
         <v>1.5</v>
       </c>
@@ -15440,10 +15712,10 @@
     </row>
     <row r="51" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C51" s="57"/>
       <c r="D51" s="58"/>
@@ -15476,13 +15748,15 @@
         <v>67</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F52" s="59">
         <v>1</v>
       </c>
@@ -15513,13 +15787,15 @@
         <v>68</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F53" s="59">
         <v>1</v>
       </c>
@@ -15550,13 +15826,15 @@
         <v>69</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F54" s="59">
         <v>1</v>
       </c>
@@ -15587,13 +15865,15 @@
         <v>70</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F55" s="59">
         <v>1</v>
       </c>
@@ -15624,13 +15904,15 @@
         <v>83</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F56" s="59">
         <v>1</v>
       </c>
@@ -15661,13 +15943,15 @@
         <v>84</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="E57" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F57" s="59">
         <v>1</v>
       </c>
@@ -15695,16 +15979,18 @@
     </row>
     <row r="58" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F58" s="59">
         <v>1</v>
       </c>
@@ -15732,16 +16018,18 @@
     </row>
     <row r="59" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C59" s="59"/>
       <c r="D59" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F59" s="59">
         <v>1</v>
       </c>
@@ -15769,16 +16057,18 @@
     </row>
     <row r="60" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F60" s="59">
         <v>1</v>
       </c>
@@ -15806,16 +16096,18 @@
     </row>
     <row r="61" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F61" s="59">
         <v>1</v>
       </c>
@@ -15843,7 +16135,7 @@
     </row>
     <row r="62" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -15877,13 +16169,15 @@
         <v>67</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F63" s="59">
         <v>1</v>
       </c>
@@ -15914,13 +16208,15 @@
         <v>68</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F64" s="59">
         <v>1</v>
       </c>
@@ -15951,13 +16247,15 @@
         <v>69</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F65" s="59">
         <v>1</v>
       </c>
@@ -15987,14 +16285,16 @@
       <c r="A66" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="91" t="s">
-        <v>213</v>
+      <c r="B66" s="65" t="s">
+        <v>211</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F66" s="59">
         <v>1</v>
       </c>
@@ -16021,17 +16321,19 @@
       <c r="AA66" s="55"/>
     </row>
     <row r="67" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="63" t="s">
         <v>83</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="C67" s="90"/>
+        <v>214</v>
+      </c>
+      <c r="C67" s="64"/>
       <c r="D67" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F67" s="59">
         <v>1</v>
       </c>
@@ -16058,17 +16360,19 @@
       <c r="AA67" s="55"/>
     </row>
     <row r="68" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="63" t="s">
         <v>84</v>
       </c>
       <c r="B68" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="90"/>
+        <v>168</v>
+      </c>
+      <c r="C68" s="64"/>
       <c r="D68" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F68" s="59">
         <v>1</v>
       </c>
@@ -16098,7 +16402,7 @@
       <c r="A69" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="92"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="60"/>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
@@ -18932,7 +19236,7 @@
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -18956,15 +19260,15 @@
     <row r="1" spans="1:27" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
       <c r="L1" s="2"/>

--- a/Design Phase/Project Documentation/01-Sprint_Backlog-(Project_Id)-(Project_Name)_v1.0.xlsx
+++ b/Design Phase/Project Documentation/01-Sprint_Backlog-(Project_Id)-(Project_Name)_v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <definedName name="Iteration">#REF!</definedName>
     <definedName name="Ltst_TestLog">"'Test log'"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">' Sample'!$A$2:$U$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint -1'!$A$2:$U$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint -1'!$A$2:$U$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Sprint -2'!$A$2:$U$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Sprint -3'!$A$2:$U$28</definedName>
     <definedName name="Priority" localSheetId="4">#REF!</definedName>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="221">
   <si>
     <t>&lt;Project Name&gt;</t>
   </si>
@@ -515,19 +515,10 @@
     <t>Login controller</t>
   </si>
   <si>
-    <t>Connection Handler</t>
-  </si>
-  <si>
     <t>UserService</t>
   </si>
   <si>
     <t>Task_8</t>
-  </si>
-  <si>
-    <t>UserDAO -Interface</t>
-  </si>
-  <si>
-    <t>UserDaoImpl</t>
   </si>
   <si>
     <t>admin login jsp</t>
@@ -537,15 +528,6 @@
   </si>
   <si>
     <t>admin sql table</t>
-  </si>
-  <si>
-    <t>userDao - methods</t>
-  </si>
-  <si>
-    <t>UserDAOImpl - methods</t>
-  </si>
-  <si>
-    <t>UserDaoService</t>
   </si>
   <si>
     <t>User Story #6</t>
@@ -864,6 +846,21 @@
   </si>
   <si>
     <t>User Registration form</t>
+  </si>
+  <si>
+    <t>Analyst Reg form</t>
+  </si>
+  <si>
+    <t>User Repository</t>
+  </si>
+  <si>
+    <t>Analyst Repository</t>
+  </si>
+  <si>
+    <t>Reg Controller</t>
+  </si>
+  <si>
+    <t>All Model Class made To Entity</t>
   </si>
 </sst>
 </file>
@@ -1902,18 +1899,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint -1'!$F$53:$K$53</c:f>
+              <c:f>'Sprint -1'!$F$54:$K$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41.25</c:v>
+                  <c:v>42.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3607,7 +3604,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8948,11 +8945,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA148"/>
+  <dimension ref="A1:AA149"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9085,13 +9081,15 @@
         <v>101</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F4" s="59">
         <v>1</v>
       </c>
       <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="H4" s="59">
+        <v>1</v>
+      </c>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -9117,7 +9115,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59" t="s">
@@ -9158,7 +9156,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59" t="s">
@@ -9199,7 +9197,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59" t="s">
@@ -9247,13 +9245,15 @@
         <v>101</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F8" s="59">
         <v>1.5</v>
       </c>
       <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="59">
+        <v>1.5</v>
+      </c>
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
@@ -9286,13 +9286,15 @@
         <v>98</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F9" s="59">
         <v>1</v>
       </c>
       <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="H9" s="59">
+        <v>1</v>
+      </c>
       <c r="I9" s="59"/>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
@@ -9351,20 +9353,22 @@
         <v>67</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F11" s="59">
         <v>1</v>
       </c>
       <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
+      <c r="H11" s="59">
+        <v>1.5</v>
+      </c>
       <c r="I11" s="59"/>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -9397,13 +9401,15 @@
         <v>97</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F12" s="59">
         <v>1.5</v>
       </c>
       <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="H12" s="59">
+        <v>1.5</v>
+      </c>
       <c r="I12" s="59"/>
       <c r="J12" s="59"/>
       <c r="K12" s="59"/>
@@ -9425,26 +9431,24 @@
       <c r="AA12" s="55"/>
     </row>
     <row r="13" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>69</v>
-      </c>
+      <c r="A13" s="59"/>
       <c r="B13" s="59" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E13" s="59" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="59">
-        <v>2</v>
-      </c>
-      <c r="G13" s="59">
-        <v>2.5</v>
-      </c>
-      <c r="H13" s="59"/>
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59">
+        <v>1.5</v>
+      </c>
       <c r="I13" s="59"/>
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
@@ -9467,23 +9471,23 @@
     </row>
     <row r="14" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="59">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
@@ -9508,22 +9512,24 @@
     </row>
     <row r="15" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F15" s="59">
         <v>1</v>
       </c>
-      <c r="G15" s="59"/>
+      <c r="G15" s="59">
+        <v>0.5</v>
+      </c>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
       <c r="J15" s="59"/>
@@ -9547,23 +9553,25 @@
     </row>
     <row r="16" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F16" s="59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
+      <c r="H16" s="59">
+        <v>1</v>
+      </c>
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
@@ -9586,25 +9594,25 @@
     </row>
     <row r="17" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" s="59" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="59"/>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59">
+        <v>1</v>
+      </c>
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
@@ -9627,14 +9635,14 @@
     </row>
     <row r="18" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="59" t="s">
         <v>22</v>
@@ -9668,14 +9676,14 @@
     </row>
     <row r="19" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="59" t="s">
         <v>22</v>
@@ -9708,21 +9716,29 @@
       <c r="AA19" s="55"/>
     </row>
     <row r="20" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
+      <c r="A20" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
       <c r="N20" s="55"/>
@@ -9741,27 +9757,21 @@
       <c r="AA20" s="55"/>
     </row>
     <row r="21" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="59">
-        <v>1</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="A21" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
       <c r="N21" s="55"/>
@@ -9781,23 +9791,25 @@
     </row>
     <row r="22" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F22" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="H22" s="59">
+        <v>1</v>
+      </c>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -9820,20 +9832,20 @@
     </row>
     <row r="23" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" s="59" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
@@ -9859,23 +9871,25 @@
     </row>
     <row r="24" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F24" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
+      <c r="H24" s="59">
+        <v>2</v>
+      </c>
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
@@ -9898,23 +9912,25 @@
     </row>
     <row r="25" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F25" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
+      <c r="H25" s="59">
+        <v>1</v>
+      </c>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
@@ -9937,23 +9953,25 @@
     </row>
     <row r="26" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F26" s="59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="59">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="59"/>
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
@@ -9976,23 +9994,25 @@
     </row>
     <row r="27" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F27" s="59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="H27" s="59">
+        <v>0.5</v>
+      </c>
       <c r="I27" s="59"/>
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
@@ -10013,22 +10033,30 @@
       <c r="Z27" s="55"/>
       <c r="AA27" s="55"/>
     </row>
-    <row r="28" spans="1:27" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+    <row r="28" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="59">
+        <v>1</v>
+      </c>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59">
+        <v>1</v>
+      </c>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
       <c r="N28" s="55"/>
@@ -10046,28 +10074,22 @@
       <c r="Z28" s="55"/>
       <c r="AA28" s="55"/>
     </row>
-    <row r="29" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="59">
-        <v>1</v>
-      </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+    <row r="29" spans="1:27" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
       <c r="N29" s="55"/>
@@ -10087,14 +10109,14 @@
     </row>
     <row r="30" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="59" t="s">
         <v>22</v>
@@ -10103,7 +10125,9 @@
         <v>1</v>
       </c>
       <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
+      <c r="H30" s="59">
+        <v>1</v>
+      </c>
       <c r="I30" s="59"/>
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
@@ -10126,22 +10150,24 @@
     </row>
     <row r="31" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F31" s="59">
         <v>1</v>
       </c>
-      <c r="G31" s="59"/>
+      <c r="G31" s="59">
+        <v>1</v>
+      </c>
       <c r="H31" s="59"/>
       <c r="I31" s="59"/>
       <c r="J31" s="59"/>
@@ -10165,23 +10191,25 @@
     </row>
     <row r="32" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F32" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="H32" s="59">
+        <v>1.5</v>
+      </c>
       <c r="I32" s="59"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
@@ -10204,21 +10232,13 @@
     </row>
     <row r="33" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>115</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B33" s="59"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="59">
-        <v>1</v>
-      </c>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -10242,21 +10262,27 @@
       <c r="AA33" s="55"/>
     </row>
     <row r="34" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
+      <c r="A34" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="59">
+        <v>1</v>
+      </c>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
       <c r="L34" s="55"/>
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
@@ -10275,27 +10301,21 @@
       <c r="AA34" s="55"/>
     </row>
     <row r="35" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="59">
-        <v>1</v>
-      </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="A35" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
       <c r="L35" s="55"/>
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
@@ -10315,23 +10335,25 @@
     </row>
     <row r="36" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F36" s="59">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
+      <c r="H36" s="59">
+        <v>1</v>
+      </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
@@ -10353,21 +10375,27 @@
       <c r="AA36" s="55"/>
     </row>
     <row r="37" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="A37" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
       <c r="L37" s="55"/>
       <c r="M37" s="55"/>
       <c r="N37" s="55"/>
@@ -10386,27 +10414,21 @@
       <c r="AA37" s="55"/>
     </row>
     <row r="38" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="59">
-        <v>1</v>
-      </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
+      <c r="A38" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
       <c r="L38" s="55"/>
       <c r="M38" s="55"/>
       <c r="N38" s="55"/>
@@ -10426,20 +10448,20 @@
     </row>
     <row r="39" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="59" t="s">
         <v>96</v>
       </c>
       <c r="F39" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
@@ -10463,22 +10485,22 @@
       <c r="Z39" s="55"/>
       <c r="AA39" s="55"/>
     </row>
-    <row r="40" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E40" s="59" t="s">
         <v>96</v>
       </c>
       <c r="F40" s="59">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
@@ -10502,22 +10524,22 @@
       <c r="Z40" s="55"/>
       <c r="AA40" s="55"/>
     </row>
-    <row r="41" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E41" s="59" t="s">
         <v>96</v>
       </c>
       <c r="F41" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G41" s="59"/>
       <c r="H41" s="59"/>
@@ -10543,14 +10565,14 @@
     </row>
     <row r="42" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42" s="59" t="s">
         <v>96</v>
@@ -10581,21 +10603,27 @@
       <c r="AA42" s="55"/>
     </row>
     <row r="43" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
+      <c r="A43" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="59">
+        <v>1</v>
+      </c>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
       <c r="L43" s="55"/>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
@@ -10614,27 +10642,21 @@
       <c r="AA43" s="55"/>
     </row>
     <row r="44" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="59">
-        <v>1</v>
-      </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
+      <c r="A44" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
@@ -10654,14 +10676,14 @@
     </row>
     <row r="45" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" s="59" t="s">
         <v>96</v>
@@ -10693,20 +10715,20 @@
     </row>
     <row r="46" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="59" t="s">
         <v>96</v>
       </c>
       <c r="F46" s="59">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G46" s="59"/>
       <c r="H46" s="59"/>
@@ -10732,14 +10754,14 @@
     </row>
     <row r="47" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E47" s="59" t="s">
         <v>96</v>
@@ -10771,20 +10793,20 @@
     </row>
     <row r="48" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="59" t="s">
         <v>96</v>
       </c>
       <c r="F48" s="59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G48" s="59"/>
       <c r="H48" s="59"/>
@@ -10809,21 +10831,27 @@
       <c r="AA48" s="55"/>
     </row>
     <row r="49" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
+      <c r="A49" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="59">
+        <v>1</v>
+      </c>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
       <c r="L49" s="55"/>
       <c r="M49" s="55"/>
       <c r="N49" s="55"/>
@@ -10842,27 +10870,21 @@
       <c r="AA49" s="55"/>
     </row>
     <row r="50" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="59">
-        <v>1</v>
-      </c>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
+      <c r="A50" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
       <c r="L50" s="55"/>
       <c r="M50" s="55"/>
       <c r="N50" s="55"/>
@@ -10882,10 +10904,10 @@
     </row>
     <row r="51" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="59" t="s">
@@ -10921,14 +10943,14 @@
     </row>
     <row r="52" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E52" s="59" t="s">
         <v>96</v>
@@ -10958,38 +10980,28 @@
       <c r="Z52" s="55"/>
       <c r="AA52" s="55"/>
     </row>
-    <row r="53" spans="1:27" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60">
-        <f>SUM(F3:F52)</f>
-        <v>41.25</v>
-      </c>
-      <c r="G53" s="60">
-        <f>SUM(G4:G52)</f>
-        <v>6</v>
-      </c>
-      <c r="H53" s="60">
-        <f>SUM(H3:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="60">
-        <f>SUM(I3:I52)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="60">
-        <f>SUM(J3:J52)</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="60">
-        <f>SUM(K3:K52)</f>
-        <v>0</v>
-      </c>
+    <row r="53" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="59">
+        <v>1</v>
+      </c>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
       <c r="L53" s="55"/>
       <c r="M53" s="55"/>
       <c r="N53" s="55"/>
@@ -11007,18 +11019,38 @@
       <c r="Z53" s="55"/>
       <c r="AA53" s="55"/>
     </row>
-    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
+    <row r="54" spans="1:27" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60">
+        <f>SUM(F3:F53)</f>
+        <v>42.75</v>
+      </c>
+      <c r="G54" s="60">
+        <f>SUM(G4:G53)</f>
+        <v>7</v>
+      </c>
+      <c r="H54" s="60">
+        <f>SUM(H3:H53)</f>
+        <v>19.5</v>
+      </c>
+      <c r="I54" s="60">
+        <f>SUM(I3:I53)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="60">
+        <f>SUM(J3:J53)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="60">
+        <f>SUM(K3:K53)</f>
+        <v>0</v>
+      </c>
       <c r="L54" s="55"/>
       <c r="M54" s="55"/>
       <c r="N54" s="55"/>
@@ -11036,7 +11068,7 @@
       <c r="Z54" s="55"/>
       <c r="AA54" s="55"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="56"/>
@@ -13762,6 +13794,35 @@
       <c r="Z148" s="55"/>
       <c r="AA148" s="55"/>
     </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A149" s="55"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="55"/>
+      <c r="J149" s="55"/>
+      <c r="K149" s="55"/>
+      <c r="L149" s="55"/>
+      <c r="M149" s="55"/>
+      <c r="N149" s="55"/>
+      <c r="O149" s="55"/>
+      <c r="P149" s="55"/>
+      <c r="Q149" s="55"/>
+      <c r="R149" s="55"/>
+      <c r="S149" s="55"/>
+      <c r="T149" s="55"/>
+      <c r="U149" s="55"/>
+      <c r="V149" s="55"/>
+      <c r="W149" s="55"/>
+      <c r="X149" s="55"/>
+      <c r="Y149" s="55"/>
+      <c r="Z149" s="55"/>
+      <c r="AA149" s="55"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:I1"/>
@@ -13773,11 +13834,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F52 F3:F19">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F53">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:K52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:K53 H11:H13 G3:H10 G14:H53">
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
@@ -13888,10 +13949,10 @@
     </row>
     <row r="3" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="58"/>
@@ -13924,7 +13985,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59" t="s">
@@ -13963,7 +14024,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59" t="s">
@@ -14002,7 +14063,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59" t="s">
@@ -14041,7 +14102,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59" t="s">
@@ -14080,7 +14141,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59" t="s">
@@ -14119,7 +14180,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59" t="s">
@@ -14158,7 +14219,7 @@
         <v>102</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59" t="s">
@@ -14194,10 +14255,10 @@
     </row>
     <row r="11" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="58"/>
@@ -14230,7 +14291,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59" t="s">
@@ -14269,7 +14330,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59" t="s">
@@ -14308,7 +14369,7 @@
         <v>69</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59" t="s">
@@ -14347,7 +14408,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59" t="s">
@@ -14386,7 +14447,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59" t="s">
@@ -14425,7 +14486,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59" t="s">
@@ -14461,10 +14522,10 @@
     </row>
     <row r="18" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="58"/>
@@ -14497,7 +14558,7 @@
         <v>67</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59" t="s">
@@ -14536,7 +14597,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59" t="s">
@@ -14575,7 +14636,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59" t="s">
@@ -14614,7 +14675,7 @@
         <v>70</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59" t="s">
@@ -14650,10 +14711,10 @@
     </row>
     <row r="23" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58"/>
@@ -14686,7 +14747,7 @@
         <v>67</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59" t="s">
@@ -14725,7 +14786,7 @@
         <v>68</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59" t="s">
@@ -14764,7 +14825,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59" t="s">
@@ -14803,7 +14864,7 @@
         <v>70</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59" t="s">
@@ -14839,10 +14900,10 @@
     </row>
     <row r="28" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="58"/>
@@ -14875,7 +14936,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59" t="s">
@@ -14914,7 +14975,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59" t="s">
@@ -14953,7 +15014,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59" t="s">
@@ -14992,7 +15053,7 @@
         <v>70</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59" t="s">
@@ -15031,7 +15092,7 @@
         <v>83</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59" t="s">
@@ -15067,10 +15128,10 @@
     </row>
     <row r="34" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="58"/>
@@ -15103,7 +15164,7 @@
         <v>67</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="59" t="s">
@@ -15142,7 +15203,7 @@
         <v>68</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59" t="s">
@@ -15178,10 +15239,10 @@
     </row>
     <row r="37" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="58"/>
@@ -15214,7 +15275,7 @@
         <v>67</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="59" t="s">
@@ -15253,7 +15314,7 @@
         <v>68</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59" t="s">
@@ -15292,7 +15353,7 @@
         <v>69</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59" t="s">
@@ -15331,7 +15392,7 @@
         <v>70</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="59" t="s">
@@ -15370,7 +15431,7 @@
         <v>83</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59" t="s">
@@ -15409,7 +15470,7 @@
         <v>84</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59" t="s">
@@ -15448,7 +15509,7 @@
         <v>102</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59" t="s">
@@ -15484,10 +15545,10 @@
     </row>
     <row r="45" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59" t="s">
@@ -15523,10 +15584,10 @@
     </row>
     <row r="46" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59" t="s">
@@ -15562,10 +15623,10 @@
     </row>
     <row r="47" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C47" s="57"/>
       <c r="D47" s="58"/>
@@ -15598,7 +15659,7 @@
         <v>67</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59" t="s">
@@ -15637,7 +15698,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="59" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="59" t="s">
@@ -15676,7 +15737,7 @@
         <v>69</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="59" t="s">
@@ -15712,10 +15773,10 @@
     </row>
     <row r="51" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C51" s="57"/>
       <c r="D51" s="58"/>
@@ -15748,7 +15809,7 @@
         <v>67</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59" t="s">
@@ -15787,7 +15848,7 @@
         <v>68</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="59" t="s">
@@ -15826,7 +15887,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="59" t="s">
@@ -15865,7 +15926,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="59" t="s">
@@ -15904,7 +15965,7 @@
         <v>83</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59" t="s">
@@ -15943,7 +16004,7 @@
         <v>84</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="59" t="s">
@@ -15982,7 +16043,7 @@
         <v>102</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="59" t="s">
@@ -16018,10 +16079,10 @@
     </row>
     <row r="59" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C59" s="59"/>
       <c r="D59" s="59" t="s">
@@ -16057,10 +16118,10 @@
     </row>
     <row r="60" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="59" t="s">
@@ -16096,10 +16157,10 @@
     </row>
     <row r="61" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="59" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="59" t="s">
@@ -16135,7 +16196,7 @@
     </row>
     <row r="62" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -16169,7 +16230,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="59" t="s">
@@ -16208,7 +16269,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="59" t="s">
@@ -16247,7 +16308,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="59" t="s">
@@ -16286,7 +16347,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="59" t="s">
@@ -16325,7 +16386,7 @@
         <v>83</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C67" s="64"/>
       <c r="D67" s="59" t="s">
@@ -16364,7 +16425,7 @@
         <v>84</v>
       </c>
       <c r="B68" s="59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C68" s="64"/>
       <c r="D68" s="59" t="s">
@@ -19236,7 +19297,7 @@
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -22962,18 +23023,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23148,6 +23209,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -23160,14 +23229,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
